--- a/public/data/content.xlsx
+++ b/public/data/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerii\Desktop\Work\misc\S-SE\Kosovo Pavillon\_deployments\venicebiennial25-kosovo\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD02C2C3-2630-4EDA-B31B-0F3960A55D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7432AB-E4E4-4E83-A587-085A6766D56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,18 +458,6 @@
     <t>1F0A9601</t>
   </si>
   <si>
-    <t>_DSC5056</t>
-  </si>
-  <si>
-    <t>_DSC5073</t>
-  </si>
-  <si>
-    <t>_DSC5035</t>
-  </si>
-  <si>
-    <t>_DSC5122</t>
-  </si>
-  <si>
     <t>IMG_1277</t>
   </si>
   <si>
@@ -510,6 +498,18 @@
   </si>
   <si>
     <t>png</t>
+  </si>
+  <si>
+    <t>DSC5056</t>
+  </si>
+  <si>
+    <t>DSC5073</t>
+  </si>
+  <si>
+    <t>DSC5035</t>
+  </si>
+  <si>
+    <t>DSC5122</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,7 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,7 +648,10 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1058,7 @@
       <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1087,7 +1096,7 @@
       <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1120,12 +1129,12 @@
         <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1156,12 +1165,12 @@
         <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1192,12 +1201,12 @@
         <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -1228,12 +1237,12 @@
         <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1264,12 +1273,12 @@
         <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1300,12 +1309,12 @@
         <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1336,12 +1345,12 @@
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1372,12 +1381,12 @@
         <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1408,12 +1417,12 @@
         <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -1444,12 +1453,12 @@
         <v>47</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1480,12 +1489,12 @@
         <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -1516,12 +1525,12 @@
         <v>51</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="16" t="s">
         <v>53</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -1552,12 +1561,12 @@
         <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="16" t="s">
         <v>53</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -1588,12 +1597,12 @@
         <v>56</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1624,12 +1633,12 @@
         <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -1660,12 +1669,12 @@
         <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -2974,7 +2983,7 @@
       <c r="A59" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="14" t="s">
         <v>126</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -3290,7 +3299,7 @@
       <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="14" t="s">
         <v>136</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -3565,7 +3574,7 @@
         <v>14</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>64</v>
@@ -3599,7 +3608,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>64</v>
@@ -3633,7 +3642,7 @@
         <v>14</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>64</v>
@@ -3667,7 +3676,7 @@
         <v>14</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>64</v>
@@ -3701,7 +3710,7 @@
         <v>14</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>64</v>
@@ -3737,7 +3746,7 @@
         <v>14</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>64</v>
@@ -3773,7 +3782,7 @@
         <v>14</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>64</v>
@@ -3809,7 +3818,7 @@
         <v>14</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>64</v>
@@ -3845,7 +3854,7 @@
         <v>66</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>88</v>
@@ -3879,7 +3888,7 @@
         <v>66</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>88</v>
@@ -3915,7 +3924,7 @@
         <v>66</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>88</v>
@@ -3951,7 +3960,7 @@
         <v>14</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>64</v>
@@ -9497,27 +9506,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/public/data/content.xlsx
+++ b/public/data/content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerii\Desktop\Work\misc\S-SE\Kosovo Pavillon\_deployments\venicebiennial25-kosovo\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7432AB-E4E4-4E83-A587-085A6766D56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FB17E4-01B5-409E-A96C-9E2A566241B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="162">
   <si>
     <t>folder</t>
   </si>
@@ -495,9 +495,6 @@
   </si>
   <si>
     <t>other narrative</t>
-  </si>
-  <si>
-    <t>png</t>
   </si>
   <si>
     <t>DSC5056</t>
@@ -872,7 +869,7 @@
   <dimension ref="A1:T982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1126,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>25</v>
@@ -1165,7 +1162,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>29</v>
@@ -1201,7 +1198,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>31</v>
@@ -1237,7 +1234,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>33</v>
@@ -1273,7 +1270,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>36</v>
@@ -1309,7 +1306,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>38</v>
@@ -1345,7 +1342,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -1381,7 +1378,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>43</v>
@@ -1417,7 +1414,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>45</v>
@@ -1453,7 +1450,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>48</v>
@@ -1489,7 +1486,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>50</v>
@@ -1525,7 +1522,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>52</v>
@@ -1561,7 +1558,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>55</v>
@@ -1597,7 +1594,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>57</v>
@@ -1633,7 +1630,7 @@
         <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>59</v>
@@ -1669,7 +1666,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>62</v>
@@ -3574,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>64</v>
@@ -3608,7 +3605,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>64</v>
@@ -3642,7 +3639,7 @@
         <v>14</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>64</v>
@@ -3676,7 +3673,7 @@
         <v>14</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>64</v>
